--- a/jpcore-r4/feature/swg5-immunizationへのJPCore参照等/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/feature/swg5-immunizationへのJPCore参照等/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -436,7 +436,7 @@
     <t>Symbol in syntax defined by the system</t>
   </si>
   <si>
-    <t>点数表コード１桁「1：医科」、「3：歯科」、「4：調剤」、「5：老人保健施設」、「6：訪問看護ステーション」」、「0：助産所」。</t>
+    <t>点数表コード１桁「1：医科」、「3：歯科」、「4：調剤」、「5：老人保健施設」、「6：訪問看護ステーション」」。</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
